--- a/pathogen_growth_inhibition.xlsx
+++ b/pathogen_growth_inhibition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcajasmunoz/Library/CloudStorage/GoogleDrive-dadavid.cajas@gmail.com/Mi unidad/Academia/Postgrado/UvA/Results and experiments track/Experiment 1 - Inoculants and amendments on crops and grasses/9-Analysis/3-Pathogen growth inhibition/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcajasmunoz/Library/CloudStorage/GoogleDrive-dadavid.cajas@gmail.com/Mi unidad/Academia/Postgrado/UvA/Results and experiments track/Experiment 1 - Inoculants and amendments on crops and grasses/9-Analysis/3-Pathogen growth inhibition/R/Pathogen_inhibition_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A495C4-19F7-9D4F-A358-B44AADCB4D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C7D2CA-1825-D346-A352-DF8223F2512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="3" r:id="rId1"/>
@@ -304,6 +304,105 @@
             <family val="2"/>
           </rPr>
           <t>TBD 19/6/25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D40" authorId="0" shapeId="0" xr:uid="{9B8E5C1A-AEA6-F049-93E6-39D734297238}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Cajas Muñoz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TBD 25/6/25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{299C2EEB-97A1-A945-85FF-4B773580A543}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Cajas Muñoz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TBD 25/6/25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H40" authorId="0" shapeId="0" xr:uid="{34B287D9-AA56-8046-9229-93C64CB76BA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Cajas Muñoz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>TBD 03/7/25</t>
         </r>
       </text>
     </comment>
@@ -1006,7 +1105,7 @@
   <dimension ref="A1:P1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D41" sqref="D41:H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1839,6 +1938,7 @@
         <v>9.25</v>
       </c>
       <c r="H20">
+        <f>AVERAGE(7,18,12,8)</f>
         <v>11.25</v>
       </c>
       <c r="I20">
@@ -1882,6 +1982,7 @@
         <v>11.5</v>
       </c>
       <c r="H21">
+        <f>AVERAGE(14,13,8,13)</f>
         <v>12</v>
       </c>
       <c r="I21">
@@ -1928,8 +2029,8 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <f>E22*1.25</f>
-        <v>11.875</v>
+        <f>AVERAGE(11,8,12,9)</f>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>77</v>
@@ -1972,6 +2073,7 @@
         <v>9.25</v>
       </c>
       <c r="H23">
+        <f>AVERAGE(4,10,14,10)</f>
         <v>9.5</v>
       </c>
       <c r="I23">
@@ -2015,6 +2117,7 @@
         <v>12.5</v>
       </c>
       <c r="H24">
+        <f>AVERAGE(13,13,13,11)</f>
         <v>12.5</v>
       </c>
       <c r="I24">
@@ -2058,6 +2161,7 @@
         <v>13.75</v>
       </c>
       <c r="H25">
+        <f>AVERAGE(14,9,18,16)</f>
         <v>14.25</v>
       </c>
       <c r="I25">
@@ -2101,6 +2205,7 @@
         <v>11.5</v>
       </c>
       <c r="H26">
+        <f>AVERAGE(14,10,13,13)</f>
         <v>12.5</v>
       </c>
       <c r="I26">
@@ -2144,6 +2249,7 @@
         <v>11.75</v>
       </c>
       <c r="H27">
+        <f>AVERAGE(15,13,13,13)</f>
         <v>13.5</v>
       </c>
       <c r="I27">
@@ -2187,6 +2293,7 @@
         <v>11.5</v>
       </c>
       <c r="H28">
+        <f>AVERAGE(13,14,9,12)</f>
         <v>12</v>
       </c>
       <c r="I28">
@@ -2230,6 +2337,7 @@
         <v>9.25</v>
       </c>
       <c r="H29">
+        <f>AVERAGE(8,11,8,10)</f>
         <v>9.25</v>
       </c>
       <c r="I29">
@@ -2273,6 +2381,7 @@
         <v>11.75</v>
       </c>
       <c r="H30">
+        <f>AVERAGE(12,13,13,11)</f>
         <v>12.25</v>
       </c>
       <c r="I30">
@@ -2316,6 +2425,7 @@
         <v>8.5</v>
       </c>
       <c r="H31">
+        <f>AVERAGE(11,11,4,14)</f>
         <v>10</v>
       </c>
       <c r="I31">
@@ -2359,6 +2469,7 @@
         <v>10.5</v>
       </c>
       <c r="H32">
+        <f>AVERAGE(13,15,4,10)</f>
         <v>10.5</v>
       </c>
       <c r="I32">
@@ -2402,6 +2513,7 @@
         <v>10.75</v>
       </c>
       <c r="H33">
+        <f>AVERAGE(11,12,12,9)</f>
         <v>11</v>
       </c>
       <c r="I33">
@@ -2445,7 +2557,8 @@
         <v>10.75</v>
       </c>
       <c r="H34">
-        <v>11.5</v>
+        <f>AVERAGE(13,8,14,10)</f>
+        <v>11.25</v>
       </c>
       <c r="I34">
         <v>149</v>
@@ -2488,6 +2601,7 @@
         <v>9.75</v>
       </c>
       <c r="H35">
+        <f>AVERAGE(13,9,13,7)</f>
         <v>10.5</v>
       </c>
       <c r="I35">
@@ -2531,7 +2645,8 @@
         <v>11</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <f>AVERAGE(17,13,11,5)</f>
+        <v>11.5</v>
       </c>
       <c r="I36">
         <v>173</v>
@@ -2574,6 +2689,7 @@
         <v>15.75</v>
       </c>
       <c r="H37">
+        <f>AVERAGE(13,19,15,19)</f>
         <v>16.5</v>
       </c>
       <c r="I37">
@@ -2617,6 +2733,7 @@
         <v>9.25</v>
       </c>
       <c r="H38">
+        <f>AVERAGE(7,12,12,12)</f>
         <v>10.75</v>
       </c>
       <c r="I38">
@@ -2660,6 +2777,7 @@
         <v>7.25</v>
       </c>
       <c r="H39">
+        <f>AVERAGE(6,11,10,3)</f>
         <v>7.5</v>
       </c>
       <c r="I39">
@@ -6080,7 +6198,7 @@
   <dimension ref="A1:P1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6913,6 +7031,7 @@
         <v>9.25</v>
       </c>
       <c r="H20">
+        <f>AVERAGE(7,18,12,8)</f>
         <v>11.25</v>
       </c>
       <c r="I20">
@@ -6956,6 +7075,7 @@
         <v>11.5</v>
       </c>
       <c r="H21">
+        <f>AVERAGE(14,13,8,13)</f>
         <v>12</v>
       </c>
       <c r="I21">
@@ -7002,8 +7122,8 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <f>E22*1.25</f>
-        <v>11.875</v>
+        <f>AVERAGE(11,8,12,9)</f>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>77</v>
@@ -7046,6 +7166,7 @@
         <v>9.25</v>
       </c>
       <c r="H23">
+        <f>AVERAGE(4,10,14,10)</f>
         <v>9.5</v>
       </c>
       <c r="I23">
@@ -7089,6 +7210,7 @@
         <v>12.5</v>
       </c>
       <c r="H24">
+        <f>AVERAGE(13,13,13,11)</f>
         <v>12.5</v>
       </c>
       <c r="I24">
@@ -7132,6 +7254,7 @@
         <v>13.75</v>
       </c>
       <c r="H25">
+        <f>AVERAGE(14,9,18,16)</f>
         <v>14.25</v>
       </c>
       <c r="I25">
@@ -7175,6 +7298,7 @@
         <v>11.5</v>
       </c>
       <c r="H26">
+        <f>AVERAGE(14,10,13,13)</f>
         <v>12.5</v>
       </c>
       <c r="I26">
@@ -7218,6 +7342,7 @@
         <v>11.75</v>
       </c>
       <c r="H27">
+        <f>AVERAGE(15,13,13,13)</f>
         <v>13.5</v>
       </c>
       <c r="I27">
@@ -7261,6 +7386,7 @@
         <v>11.5</v>
       </c>
       <c r="H28">
+        <f>AVERAGE(13,14,9,12)</f>
         <v>12</v>
       </c>
       <c r="I28">
@@ -7304,6 +7430,7 @@
         <v>9.25</v>
       </c>
       <c r="H29">
+        <f>AVERAGE(8,11,8,10)</f>
         <v>9.25</v>
       </c>
       <c r="I29">
@@ -7347,6 +7474,7 @@
         <v>11.75</v>
       </c>
       <c r="H30">
+        <f>AVERAGE(12,13,13,11)</f>
         <v>12.25</v>
       </c>
       <c r="I30">
@@ -7390,6 +7518,7 @@
         <v>8.5</v>
       </c>
       <c r="H31">
+        <f>AVERAGE(11,11,4,14)</f>
         <v>10</v>
       </c>
       <c r="I31">
@@ -7433,6 +7562,7 @@
         <v>10.5</v>
       </c>
       <c r="H32">
+        <f>AVERAGE(13,15,4,10)</f>
         <v>10.5</v>
       </c>
       <c r="I32">
@@ -7476,6 +7606,7 @@
         <v>10.75</v>
       </c>
       <c r="H33">
+        <f>AVERAGE(11,12,12,9)</f>
         <v>11</v>
       </c>
       <c r="I33">
@@ -7519,7 +7650,8 @@
         <v>10.75</v>
       </c>
       <c r="H34">
-        <v>11.5</v>
+        <f>AVERAGE(13,8,14,10)</f>
+        <v>11.25</v>
       </c>
       <c r="I34">
         <v>149</v>
@@ -7562,6 +7694,7 @@
         <v>9.75</v>
       </c>
       <c r="H35">
+        <f>AVERAGE(13,9,13,7)</f>
         <v>10.5</v>
       </c>
       <c r="I35">
@@ -7605,7 +7738,8 @@
         <v>11</v>
       </c>
       <c r="H36">
-        <v>12</v>
+        <f>AVERAGE(17,13,11,5)</f>
+        <v>11.5</v>
       </c>
       <c r="I36">
         <v>173</v>
@@ -7648,6 +7782,7 @@
         <v>15.75</v>
       </c>
       <c r="H37">
+        <f>AVERAGE(13,19,15,19)</f>
         <v>16.5</v>
       </c>
       <c r="I37">
@@ -7691,6 +7826,7 @@
         <v>9.25</v>
       </c>
       <c r="H38">
+        <f>AVERAGE(7,12,12,12)</f>
         <v>10.75</v>
       </c>
       <c r="I38">
@@ -7734,6 +7870,7 @@
         <v>7.25</v>
       </c>
       <c r="H39">
+        <f>AVERAGE(6,11,10,3)</f>
         <v>7.5</v>
       </c>
       <c r="I39">
@@ -11154,7 +11291,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/pathogen_growth_inhibition.xlsx
+++ b/pathogen_growth_inhibition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcajasmunoz/Library/CloudStorage/GoogleDrive-dadavid.cajas@gmail.com/Mi unidad/Academia/Postgrado/UvA/Results and experiments track/Experiment 1 - Inoculants and amendments on crops and grasses/9-Analysis/3-Pathogen growth inhibition/R/Pathogen_inhibition_pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C7D2CA-1825-D346-A352-DF8223F2512F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C57C1B-EA28-8442-8492-034F60E66093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="3" r:id="rId1"/>
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:P1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:H41"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2831,6 +2831,18 @@
       <c r="C41">
         <v>20</v>
       </c>
+      <c r="D41">
+        <f>AVERAGE(30,18,29)</f>
+        <v>25.666666666666668</v>
+      </c>
+      <c r="E41">
+        <f>AVERAGE(9,6,12)</f>
+        <v>9</v>
+      </c>
+      <c r="H41">
+        <f>AVERAGE(8,10,11)</f>
+        <v>9.6666666666666661</v>
+      </c>
       <c r="K41" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2850,6 +2862,18 @@
       <c r="C42">
         <v>29</v>
       </c>
+      <c r="D42">
+        <f>AVERAGE(27,25,23)</f>
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <f>AVERAGE(9,3,6)</f>
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <f>AVERAGE(7,9,2)</f>
+        <v>6</v>
+      </c>
       <c r="K42" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2869,6 +2893,18 @@
       <c r="C43">
         <v>33</v>
       </c>
+      <c r="D43">
+        <f>AVERAGE(20,25,25)</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="E43">
+        <f>AVERAGE(7,6,5)</f>
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <f>AVERAGE(8,8,9)</f>
+        <v>8.3333333333333339</v>
+      </c>
       <c r="K43" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2888,6 +2924,18 @@
       <c r="C44">
         <v>35</v>
       </c>
+      <c r="D44">
+        <f>AVERAGE(20,19,21)</f>
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <f>AVERAGE(11,6,6)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="H44">
+        <f>AVERAGE(7,9,11)</f>
+        <v>9</v>
+      </c>
       <c r="K44" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2906,6 +2954,18 @@
       </c>
       <c r="C45">
         <v>40</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGE(20,26,24)</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="E45">
+        <f>AVERAGE(9,7,7)</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(9,9,7)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="K45" s="2">
         <f t="shared" si="0"/>
